--- a/Main_User_Workspace/input/policy/Input Module/linked_ghg_policy.xlsx
+++ b/Main_User_Workspace/input/policy/Input Module/linked_ghg_policy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="9700" yWindow="4360" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="86">
   <si>
     <t>region</t>
   </si>
@@ -115,39 +115,21 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Western Europe</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>Australia_NZ</t>
   </si>
   <si>
-    <t>Former Soviet Union</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
     <t>Middle East</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
     <t>Southeast Asia</t>
   </si>
   <si>
-    <t>Eastern Europe</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -224,6 +206,78 @@
   </si>
   <si>
     <t>MtC</t>
+  </si>
+  <si>
+    <t>Africa_Eastern</t>
+  </si>
+  <si>
+    <t>Africa_Northern</t>
+  </si>
+  <si>
+    <t>Africa_Southern</t>
+  </si>
+  <si>
+    <t>Africa_Western</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Central America and Caribbean</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>EU-12</t>
+  </si>
+  <si>
+    <t>EU-15</t>
+  </si>
+  <si>
+    <t>Europe_Eastern</t>
+  </si>
+  <si>
+    <t>Europe_Non_EU</t>
+  </si>
+  <si>
+    <t>European Free Trade Association</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South America_Northern</t>
+  </si>
+  <si>
+    <t>South America_Southern</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Colombia</t>
   </si>
 </sst>
 </file>
@@ -285,8 +339,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,7 +630,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="283">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -571,6 +723,55 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -663,6 +864,55 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,15 +1252,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1088,7 +1338,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1108,9 +1358,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:N432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1120,12 +1372,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1139,17 +1391,17 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1180,22 +1432,22 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1214,16 +1466,16 @@
         <v>3.6666666669999999</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
@@ -1263,7 +1515,7 @@
         <v>GHG</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1306,7 +1558,7 @@
         <v>GHG</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1349,7 +1601,7 @@
         <v>GHG</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1392,7 +1644,7 @@
         <v>GHG</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1435,7 +1687,7 @@
         <v>GHG</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
@@ -1478,7 +1730,7 @@
         <v>GHG</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
@@ -1521,7 +1773,7 @@
         <v>GHG</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
@@ -1564,7 +1816,7 @@
         <v>GHG</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -1607,7 +1859,7 @@
         <v>GHG</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1650,7 +1902,7 @@
         <v>GHG</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -1693,7 +1945,7 @@
         <v>GHG</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1736,7 +1988,7 @@
         <v>GHG</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1757,17 +2009,17 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1794,7 +2046,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1810,13 +2062,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ref="D31:D42" si="3">$F$10</f>
@@ -1825,13 +2077,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
@@ -1840,13 +2092,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
@@ -1855,13 +2107,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="3"/>
@@ -1870,13 +2122,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="3"/>
@@ -1885,13 +2137,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
@@ -1900,13 +2152,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="3"/>
@@ -1915,13 +2167,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="3"/>
@@ -1930,13 +2182,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="3"/>
@@ -1945,13 +2197,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="3"/>
@@ -1960,13 +2212,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="3"/>
@@ -1975,13 +2227,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="3"/>
@@ -1990,7 +2242,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2006,13 +2258,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" ref="D44:D55" si="4">$F$10</f>
@@ -2021,13 +2273,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="4"/>
@@ -2036,13 +2288,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="4"/>
@@ -2051,13 +2303,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="4"/>
@@ -2066,13 +2318,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="4"/>
@@ -2081,13 +2333,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="4"/>
@@ -2096,13 +2348,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="4"/>
@@ -2111,13 +2363,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="4"/>
@@ -2126,13 +2378,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="4"/>
@@ -2141,13 +2393,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="4"/>
@@ -2156,13 +2408,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="4"/>
@@ -2171,13 +2423,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="4"/>
@@ -2186,7 +2438,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2202,13 +2454,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ref="D57:D68" si="5">$F$10</f>
@@ -2217,13 +2469,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="5"/>
@@ -2232,13 +2484,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="5"/>
@@ -2247,13 +2499,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="5"/>
@@ -2262,13 +2514,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="5"/>
@@ -2277,13 +2529,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="5"/>
@@ -2292,13 +2544,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="5"/>
@@ -2307,13 +2559,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="5"/>
@@ -2322,13 +2574,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="5"/>
@@ -2337,13 +2589,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="5"/>
@@ -2352,13 +2604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="5"/>
@@ -2367,13 +2619,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="5"/>
@@ -2382,13 +2634,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -2396,13 +2648,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -2410,13 +2662,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
@@ -2424,13 +2676,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
@@ -2438,13 +2690,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -2452,13 +2704,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -2466,13 +2718,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -2480,13 +2732,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -2494,13 +2746,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -2508,13 +2760,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
@@ -2522,13 +2774,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
@@ -2536,13 +2788,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
@@ -2550,13 +2802,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
@@ -2564,7 +2816,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -2580,13 +2832,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ref="D83:D94" si="6">$F$10</f>
@@ -2595,13 +2847,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="6"/>
@@ -2610,13 +2862,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="6"/>
@@ -2625,13 +2877,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="6"/>
@@ -2640,13 +2892,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="6"/>
@@ -2655,13 +2907,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="6"/>
@@ -2670,13 +2922,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="6"/>
@@ -2685,13 +2937,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="6"/>
@@ -2700,13 +2952,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="6"/>
@@ -2715,13 +2967,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="6"/>
@@ -2730,13 +2982,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="6"/>
@@ -2745,13 +2997,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
         <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="6"/>
@@ -2760,7 +3012,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -2776,13 +3028,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" ref="D96:D107" si="7">$F$10</f>
@@ -2791,13 +3043,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
@@ -2806,13 +3058,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
@@ -2821,13 +3073,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
@@ -2836,13 +3088,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
@@ -2851,13 +3103,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
@@ -2866,13 +3118,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
@@ -2881,13 +3133,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
@@ -2896,13 +3148,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
@@ -2911,13 +3163,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
         <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
@@ -2926,13 +3178,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
@@ -2941,13 +3193,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
         <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
@@ -2956,13 +3208,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>9</v>
@@ -2970,13 +3222,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -2984,13 +3236,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
@@ -2998,13 +3250,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
@@ -3012,13 +3264,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
@@ -3026,13 +3278,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
@@ -3040,13 +3292,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
@@ -3054,13 +3306,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
@@ -3068,13 +3320,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>9</v>
@@ -3082,13 +3334,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>9</v>
@@ -3096,13 +3348,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>9</v>
@@ -3110,13 +3362,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
@@ -3124,13 +3376,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
@@ -3138,13 +3390,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
@@ -3152,13 +3404,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
@@ -3166,13 +3418,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
@@ -3180,13 +3432,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
@@ -3194,13 +3446,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
@@ -3208,13 +3460,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
@@ -3222,13 +3474,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
@@ -3236,13 +3488,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
@@ -3250,13 +3502,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
@@ -3264,13 +3516,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
@@ -3278,13 +3530,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
         <v>27</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>9</v>
@@ -3292,13 +3544,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
         <v>28</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
@@ -3306,13 +3558,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>9</v>
@@ -3320,13 +3572,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>9</v>
@@ -3334,13 +3586,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>9</v>
@@ -3348,13 +3600,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>9</v>
@@ -3362,13 +3614,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B137" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>9</v>
@@ -3376,13 +3628,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>9</v>
@@ -3390,13 +3642,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
         <v>18</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
@@ -3404,13 +3656,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
@@ -3418,13 +3670,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>9</v>
@@ -3432,13 +3684,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>9</v>
@@ -3446,13 +3698,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B143" t="s">
         <v>26</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>9</v>
@@ -3460,13 +3712,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>9</v>
@@ -3474,13 +3726,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B145" t="s">
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>9</v>
@@ -3488,13 +3740,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
         <v>29</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>9</v>
@@ -3502,13 +3754,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>9</v>
@@ -3516,13 +3768,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>9</v>
@@ -3530,13 +3782,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>9</v>
@@ -3544,13 +3796,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s">
         <v>14</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>9</v>
@@ -3558,13 +3810,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>9</v>
@@ -3572,13 +3824,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
         <v>18</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>9</v>
@@ -3586,13 +3838,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>9</v>
@@ -3600,13 +3852,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>9</v>
@@ -3614,13 +3866,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B155" t="s">
         <v>24</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>9</v>
@@ -3628,13 +3880,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B156" t="s">
         <v>26</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>9</v>
@@ -3642,13 +3894,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>9</v>
@@ -3656,13 +3908,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B158" t="s">
         <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>9</v>
@@ -3670,13 +3922,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>9</v>
@@ -3684,13 +3936,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>9</v>
@@ -3698,13 +3950,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>9</v>
@@ -3712,13 +3964,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>9</v>
@@ -3726,13 +3978,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B163" t="s">
         <v>14</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>9</v>
@@ -3740,13 +3992,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>9</v>
@@ -3754,13 +4006,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B165" t="s">
         <v>18</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>9</v>
@@ -3768,13 +4020,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>9</v>
@@ -3782,13 +4034,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>9</v>
@@ -3796,13 +4048,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B168" t="s">
         <v>24</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>9</v>
@@ -3810,13 +4062,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B169" t="s">
         <v>26</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>9</v>
@@ -3824,13 +4076,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B170" t="s">
         <v>27</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>9</v>
@@ -3838,13 +4090,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B171" t="s">
         <v>28</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>9</v>
@@ -3852,13 +4104,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B172" t="s">
         <v>29</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>9</v>
@@ -3866,13 +4118,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>9</v>
@@ -3880,13 +4132,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>9</v>
@@ -3894,13 +4146,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B175" t="s">
         <v>12</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>9</v>
@@ -3908,13 +4160,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>9</v>
@@ -3922,13 +4174,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>9</v>
@@ -3936,13 +4188,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B178" t="s">
         <v>18</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>9</v>
@@ -3950,13 +4202,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>9</v>
@@ -3964,13 +4216,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B180" t="s">
         <v>22</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>9</v>
@@ -3978,13 +4230,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B181" t="s">
         <v>24</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>9</v>
@@ -3992,13 +4244,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B182" t="s">
         <v>26</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>9</v>
@@ -4006,13 +4258,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
         <v>27</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>9</v>
@@ -4020,13 +4272,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>9</v>
@@ -4034,13 +4286,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B185" t="s">
         <v>29</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>9</v>
@@ -4048,13 +4300,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>9</v>
@@ -4062,13 +4314,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>9</v>
@@ -4076,13 +4328,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B188" t="s">
         <v>12</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>9</v>
@@ -4090,13 +4342,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>9</v>
@@ -4104,13 +4356,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>9</v>
@@ -4118,13 +4370,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B191" t="s">
         <v>18</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>9</v>
@@ -4132,13 +4384,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>9</v>
@@ -4146,13 +4398,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>9</v>
@@ -4160,13 +4412,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B194" t="s">
         <v>24</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>9</v>
@@ -4174,13 +4426,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B195" t="s">
         <v>26</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>9</v>
@@ -4188,13 +4440,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B196" t="s">
         <v>27</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>9</v>
@@ -4202,13 +4454,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B197" t="s">
         <v>28</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>9</v>
@@ -4216,15 +4468,3291 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B198" t="s">
         <v>29</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>72</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>72</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>72</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>72</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>72</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>72</v>
+      </c>
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>72</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>72</v>
+      </c>
+      <c r="B206" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>72</v>
+      </c>
+      <c r="B207" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>72</v>
+      </c>
+      <c r="B208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>72</v>
+      </c>
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>72</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>72</v>
+      </c>
+      <c r="B211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>73</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>73</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>73</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>73</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>73</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>73</v>
+      </c>
+      <c r="B217" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>73</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>73</v>
+      </c>
+      <c r="B220" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>73</v>
+      </c>
+      <c r="B221" t="s">
+        <v>26</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>73</v>
+      </c>
+      <c r="B222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>73</v>
+      </c>
+      <c r="B223" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>73</v>
+      </c>
+      <c r="B224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>36</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>36</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>36</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>36</v>
+      </c>
+      <c r="B229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>36</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231" t="s">
+        <v>20</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>36</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>36</v>
+      </c>
+      <c r="B234" t="s">
+        <v>26</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>36</v>
+      </c>
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>36</v>
+      </c>
+      <c r="B236" t="s">
+        <v>28</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>36</v>
+      </c>
+      <c r="B237" t="s">
+        <v>29</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>74</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>74</v>
+      </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>74</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>74</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>74</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>74</v>
+      </c>
+      <c r="B243" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>74</v>
+      </c>
+      <c r="B244" t="s">
+        <v>20</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>74</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>74</v>
+      </c>
+      <c r="B246" t="s">
+        <v>24</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>74</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>74</v>
+      </c>
+      <c r="B248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>74</v>
+      </c>
+      <c r="B250" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>31</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>31</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>31</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>31</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>31</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>31</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>31</v>
+      </c>
+      <c r="B257" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>31</v>
+      </c>
+      <c r="B259" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>31</v>
+      </c>
+      <c r="B260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" t="s">
+        <v>28</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>31</v>
+      </c>
+      <c r="B263" t="s">
+        <v>29</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>75</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>75</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>75</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>75</v>
+      </c>
+      <c r="B267" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>75</v>
+      </c>
+      <c r="B268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>75</v>
+      </c>
+      <c r="B269" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>75</v>
+      </c>
+      <c r="B270" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>75</v>
+      </c>
+      <c r="B271" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>75</v>
+      </c>
+      <c r="B272" t="s">
+        <v>24</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>75</v>
+      </c>
+      <c r="B273" t="s">
+        <v>26</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>75</v>
+      </c>
+      <c r="B274" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>75</v>
+      </c>
+      <c r="B275" t="s">
+        <v>28</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>75</v>
+      </c>
+      <c r="B276" t="s">
+        <v>29</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>34</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>34</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>34</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>34</v>
+      </c>
+      <c r="B280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>34</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>34</v>
+      </c>
+      <c r="B282" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>34</v>
+      </c>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>34</v>
+      </c>
+      <c r="B284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>34</v>
+      </c>
+      <c r="B285" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>34</v>
+      </c>
+      <c r="B286" t="s">
+        <v>26</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>34</v>
+      </c>
+      <c r="B287" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>34</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>34</v>
+      </c>
+      <c r="B289" t="s">
+        <v>29</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>76</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>76</v>
+      </c>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>76</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>76</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>76</v>
+      </c>
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>76</v>
+      </c>
+      <c r="B295" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>76</v>
+      </c>
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>76</v>
+      </c>
+      <c r="B297" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>76</v>
+      </c>
+      <c r="B298" t="s">
+        <v>24</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>76</v>
+      </c>
+      <c r="B299" t="s">
+        <v>26</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>76</v>
+      </c>
+      <c r="B300" t="s">
+        <v>27</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>76</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>76</v>
+      </c>
+      <c r="B302" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>77</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>77</v>
+      </c>
+      <c r="B304" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>77</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>77</v>
+      </c>
+      <c r="B306" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>77</v>
+      </c>
+      <c r="B307" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>77</v>
+      </c>
+      <c r="B308" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>77</v>
+      </c>
+      <c r="B309" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>77</v>
+      </c>
+      <c r="B310" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>77</v>
+      </c>
+      <c r="B311" t="s">
+        <v>24</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>77</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>77</v>
+      </c>
+      <c r="B313" t="s">
+        <v>27</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>77</v>
+      </c>
+      <c r="B314" t="s">
+        <v>28</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>77</v>
+      </c>
+      <c r="B315" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>78</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>78</v>
+      </c>
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>78</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>78</v>
+      </c>
+      <c r="B319" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>78</v>
+      </c>
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>78</v>
+      </c>
+      <c r="B321" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>78</v>
+      </c>
+      <c r="B322" t="s">
+        <v>20</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>78</v>
+      </c>
+      <c r="B323" t="s">
+        <v>22</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>78</v>
+      </c>
+      <c r="B324" t="s">
+        <v>24</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>78</v>
+      </c>
+      <c r="B325" t="s">
+        <v>26</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>78</v>
+      </c>
+      <c r="B326" t="s">
+        <v>27</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>78</v>
+      </c>
+      <c r="B327" t="s">
+        <v>28</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>78</v>
+      </c>
+      <c r="B328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>79</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>79</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>79</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>79</v>
+      </c>
+      <c r="B332" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>79</v>
+      </c>
+      <c r="B333" t="s">
+        <v>16</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>79</v>
+      </c>
+      <c r="B334" t="s">
+        <v>18</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>79</v>
+      </c>
+      <c r="B335" t="s">
+        <v>20</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>79</v>
+      </c>
+      <c r="B336" t="s">
+        <v>22</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>79</v>
+      </c>
+      <c r="B337" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>79</v>
+      </c>
+      <c r="B338" t="s">
+        <v>26</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>79</v>
+      </c>
+      <c r="B339" t="s">
+        <v>27</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>79</v>
+      </c>
+      <c r="B340" t="s">
+        <v>28</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>79</v>
+      </c>
+      <c r="B341" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>80</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>80</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>80</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>80</v>
+      </c>
+      <c r="B345" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>80</v>
+      </c>
+      <c r="B346" t="s">
+        <v>16</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>80</v>
+      </c>
+      <c r="B347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>80</v>
+      </c>
+      <c r="B348" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>80</v>
+      </c>
+      <c r="B349" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>80</v>
+      </c>
+      <c r="B350" t="s">
+        <v>24</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>80</v>
+      </c>
+      <c r="B351" t="s">
+        <v>26</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>80</v>
+      </c>
+      <c r="B352" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>80</v>
+      </c>
+      <c r="B353" t="s">
+        <v>28</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>80</v>
+      </c>
+      <c r="B354" t="s">
+        <v>29</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>81</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>81</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>81</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>81</v>
+      </c>
+      <c r="B358" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>81</v>
+      </c>
+      <c r="B359" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>81</v>
+      </c>
+      <c r="B360" t="s">
+        <v>18</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>81</v>
+      </c>
+      <c r="B361" t="s">
+        <v>20</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>81</v>
+      </c>
+      <c r="B362" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>81</v>
+      </c>
+      <c r="B363" t="s">
+        <v>24</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>81</v>
+      </c>
+      <c r="B364" t="s">
+        <v>26</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>81</v>
+      </c>
+      <c r="B365" t="s">
+        <v>27</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>81</v>
+      </c>
+      <c r="B366" t="s">
+        <v>28</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>81</v>
+      </c>
+      <c r="B367" t="s">
+        <v>29</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>82</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>82</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>82</v>
+      </c>
+      <c r="B370" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>82</v>
+      </c>
+      <c r="B371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>82</v>
+      </c>
+      <c r="B372" t="s">
+        <v>16</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>82</v>
+      </c>
+      <c r="B373" t="s">
+        <v>18</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>82</v>
+      </c>
+      <c r="B374" t="s">
+        <v>20</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>82</v>
+      </c>
+      <c r="B375" t="s">
+        <v>22</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>82</v>
+      </c>
+      <c r="B376" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>82</v>
+      </c>
+      <c r="B377" t="s">
+        <v>26</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>82</v>
+      </c>
+      <c r="B378" t="s">
+        <v>27</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>82</v>
+      </c>
+      <c r="B379" t="s">
+        <v>28</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>82</v>
+      </c>
+      <c r="B380" t="s">
+        <v>29</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>35</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" t="s">
+        <v>14</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" t="s">
+        <v>16</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>35</v>
+      </c>
+      <c r="B386" t="s">
+        <v>18</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" t="s">
+        <v>20</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>35</v>
+      </c>
+      <c r="B388" t="s">
+        <v>22</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>35</v>
+      </c>
+      <c r="B389" t="s">
+        <v>24</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>35</v>
+      </c>
+      <c r="B390" t="s">
+        <v>26</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>35</v>
+      </c>
+      <c r="B391" t="s">
+        <v>27</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" t="s">
+        <v>28</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>35</v>
+      </c>
+      <c r="B393" t="s">
+        <v>29</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>83</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>83</v>
+      </c>
+      <c r="B395" t="s">
+        <v>10</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>83</v>
+      </c>
+      <c r="B396" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>83</v>
+      </c>
+      <c r="B397" t="s">
+        <v>14</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>83</v>
+      </c>
+      <c r="B398" t="s">
+        <v>16</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>83</v>
+      </c>
+      <c r="B399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>83</v>
+      </c>
+      <c r="B400" t="s">
+        <v>20</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>83</v>
+      </c>
+      <c r="B401" t="s">
+        <v>22</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>83</v>
+      </c>
+      <c r="B402" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>83</v>
+      </c>
+      <c r="B403" t="s">
+        <v>26</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>83</v>
+      </c>
+      <c r="B404" t="s">
+        <v>27</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>83</v>
+      </c>
+      <c r="B405" t="s">
+        <v>28</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B406" t="s">
+        <v>29</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>84</v>
+      </c>
+      <c r="B407" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>84</v>
+      </c>
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>84</v>
+      </c>
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>84</v>
+      </c>
+      <c r="B410" t="s">
+        <v>14</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>84</v>
+      </c>
+      <c r="B411" t="s">
+        <v>16</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>84</v>
+      </c>
+      <c r="B412" t="s">
+        <v>18</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>84</v>
+      </c>
+      <c r="B413" t="s">
+        <v>20</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>84</v>
+      </c>
+      <c r="B414" t="s">
+        <v>22</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>84</v>
+      </c>
+      <c r="B415" t="s">
+        <v>24</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>84</v>
+      </c>
+      <c r="B416" t="s">
+        <v>26</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>84</v>
+      </c>
+      <c r="B417" t="s">
+        <v>27</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>84</v>
+      </c>
+      <c r="B418" t="s">
+        <v>28</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>84</v>
+      </c>
+      <c r="B419" t="s">
+        <v>29</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>85</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>85</v>
+      </c>
+      <c r="B421" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>85</v>
+      </c>
+      <c r="B422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>85</v>
+      </c>
+      <c r="B423" t="s">
+        <v>14</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>85</v>
+      </c>
+      <c r="B424" t="s">
+        <v>16</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>85</v>
+      </c>
+      <c r="B425" t="s">
+        <v>18</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>85</v>
+      </c>
+      <c r="B426" t="s">
+        <v>20</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>85</v>
+      </c>
+      <c r="B427" t="s">
+        <v>22</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>85</v>
+      </c>
+      <c r="B428" t="s">
+        <v>24</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>85</v>
+      </c>
+      <c r="B429" t="s">
+        <v>26</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>85</v>
+      </c>
+      <c r="B430" t="s">
+        <v>27</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>85</v>
+      </c>
+      <c r="B431" t="s">
+        <v>28</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>85</v>
+      </c>
+      <c r="B432" t="s">
+        <v>29</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D432" s="1" t="s">
         <v>9</v>
       </c>
     </row>
